--- a/doc/Arch_Beta_Week3.xlsx
+++ b/doc/Arch_Beta_Week3.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="985" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="指令码" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1242" uniqueCount="588">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1242" uniqueCount="589">
   <si>
     <t xml:space="preserve">指令</t>
   </si>
@@ -4697,6 +4697,9 @@
     <t xml:space="preserve">hi</t>
   </si>
   <si>
+    <t xml:space="preserve">rom_data_i</t>
+  </si>
+  <si>
     <t xml:space="preserve">id_inst_i</t>
   </si>
   <si>
@@ -4838,6 +4841,9 @@
     <t xml:space="preserve">W.wb_whilo_i</t>
   </si>
   <si>
+    <t xml:space="preserve">mem_excepttype</t>
+  </si>
+  <si>
     <t xml:space="preserve">mem_excepttype_i</t>
   </si>
   <si>
@@ -4862,6 +4868,9 @@
     <t xml:space="preserve">stallreq_ex</t>
   </si>
   <si>
+    <t xml:space="preserve">mem_current_inst_addr</t>
+  </si>
+  <si>
     <t xml:space="preserve">mem_current_inst_address_i</t>
   </si>
   <si>
@@ -4877,6 +4886,9 @@
     <t xml:space="preserve">reg2_read</t>
   </si>
   <si>
+    <t xml:space="preserve">mem_is_in_delayslot</t>
+  </si>
+  <si>
     <t xml:space="preserve">mem_is_in_delayslot_i</t>
   </si>
   <si>
@@ -4898,9 +4910,6 @@
     <t xml:space="preserve">ex_excepttype</t>
   </si>
   <si>
-    <t xml:space="preserve">mem_excepttype</t>
-  </si>
-  <si>
     <t xml:space="preserve">cp0_status</t>
   </si>
   <si>
@@ -4922,15 +4931,15 @@
     <t xml:space="preserve">EM.mem_hilo_i</t>
   </si>
   <si>
+    <t xml:space="preserve">current_inst_addr_o</t>
+  </si>
+  <si>
     <t xml:space="preserve">ex_current_inst_address_o</t>
   </si>
   <si>
     <t xml:space="preserve">ex_current_inst_addr</t>
   </si>
   <si>
-    <t xml:space="preserve">mem_current_inst_addr</t>
-  </si>
-  <si>
     <t xml:space="preserve">cp0_cause</t>
   </si>
   <si>
@@ -4955,7 +4964,7 @@
     <t xml:space="preserve">branch_target_address_o</t>
   </si>
   <si>
-    <t xml:space="preserve">branch_target_address</t>
+    <t xml:space="preserve">id_branch_address</t>
   </si>
   <si>
     <t xml:space="preserve">EM.mem_cnt_i</t>
@@ -4967,9 +4976,6 @@
     <t xml:space="preserve">ex_is_in_delayslot</t>
   </si>
   <si>
-    <t xml:space="preserve">mem_is_in_delayslot</t>
-  </si>
-  <si>
     <t xml:space="preserve">cp0_epc</t>
   </si>
   <si>
@@ -5033,6 +5039,15 @@
     <t xml:space="preserve">wb_cp0_reg_write_address</t>
   </si>
   <si>
+    <t xml:space="preserve">next_inst_in_delayslot_o</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id_next_delayslot_o</t>
+  </si>
+  <si>
+    <t xml:space="preserve">next_inst_in_delayslot_i</t>
+  </si>
+  <si>
     <t xml:space="preserve">ex_cp0_reg_data_o</t>
   </si>
   <si>
@@ -5042,57 +5057,54 @@
     <t xml:space="preserve">mem_cp0_reg_data_i</t>
   </si>
   <si>
+    <t xml:space="preserve">id_in_delayslot_o</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id_is_in_delayslot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ex_is_in_delayslot_i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cp0_reg_read_addr_o</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wb_cp0_reg_read_addr_i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">link_addr_o</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id_link_address_o</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id_link_address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ex_link_address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ex_link_address_i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">link_address_i</t>
+  </si>
+  <si>
     <t xml:space="preserve">E.stallreq_ex</t>
   </si>
   <si>
     <t xml:space="preserve">stall_o</t>
   </si>
   <si>
+    <t xml:space="preserve">ex_inst</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ex_inst_i</t>
+  </si>
+  <si>
     <t xml:space="preserve">I.stallreq_id</t>
   </si>
   <si>
-    <t xml:space="preserve">next_inst_in_delayslot_o</t>
-  </si>
-  <si>
-    <t xml:space="preserve">id_next_delayslot_o</t>
-  </si>
-  <si>
-    <t xml:space="preserve">next_inst_in_delayslot_i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">id_in_delayslot_o</t>
-  </si>
-  <si>
-    <t xml:space="preserve">id_is_in_delayslot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ex_is_in_delayslot_i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">link_addr_o</t>
-  </si>
-  <si>
-    <t xml:space="preserve">id_link_address_o</t>
-  </si>
-  <si>
-    <t xml:space="preserve">id_link_address</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ex_link_address</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ex_link_address_i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">link_address_i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ex_inst</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ex_inst_i</t>
-  </si>
-  <si>
     <t xml:space="preserve">id_excepttype_o</t>
   </si>
   <si>
@@ -5102,9 +5114,6 @@
     <t xml:space="preserve">ex_excepttype_i</t>
   </si>
   <si>
-    <t xml:space="preserve">current_inst_addr_o</t>
-  </si>
-  <si>
     <t xml:space="preserve">id_current_inst_address_o</t>
   </si>
   <si>
@@ -5121,12 +5130,6 @@
   </si>
   <si>
     <t xml:space="preserve">cp0_reg_data_i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cp0_reg_read_addr_o</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wb_cp0_reg_read_addr_i</t>
   </si>
   <si>
     <t xml:space="preserve">CP0</t>
@@ -5308,7 +5311,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="32">
+  <fonts count="33">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -5521,6 +5524,12 @@
       <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
     <font>
       <sz val="16"/>
@@ -5895,7 +5904,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="157">
+  <cellXfs count="159">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -6436,23 +6445,31 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="30" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="30" fillId="5" borderId="33" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="30" fillId="0" borderId="34" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="31" fillId="0" borderId="34" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="30" fillId="0" borderId="35" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="31" fillId="0" borderId="35" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="30" fillId="0" borderId="36" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="31" fillId="0" borderId="36" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="31" fillId="0" borderId="37" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="32" fillId="0" borderId="37" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -6608,9 +6625,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>176400</xdr:colOff>
+      <xdr:colOff>176040</xdr:colOff>
       <xdr:row>66</xdr:row>
-      <xdr:rowOff>26640</xdr:rowOff>
+      <xdr:rowOff>26280</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6624,7 +6641,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="386280" y="32935320"/>
-          <a:ext cx="11324880" cy="2776320"/>
+          <a:ext cx="11419560" cy="2775960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6645,9 +6662,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>570600</xdr:colOff>
+      <xdr:colOff>570240</xdr:colOff>
       <xdr:row>82</xdr:row>
-      <xdr:rowOff>162360</xdr:rowOff>
+      <xdr:rowOff>162000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6660,8 +6677,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12138480" y="32730480"/>
-          <a:ext cx="11644200" cy="6012360"/>
+          <a:off x="12233520" y="32730480"/>
+          <a:ext cx="11691720" cy="6012000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6690,10 +6707,10 @@
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.67611336032389"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.2834008097166"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.1376518218623"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="87.6234817813765"/>
-    <col collapsed="false" hidden="false" max="9" min="5" style="0" width="13.2834008097166"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.3886639676113"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.246963562753"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="88.4817813765182"/>
+    <col collapsed="false" hidden="false" max="9" min="5" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="21" min="10" style="0" width="10.8178137651822"/>
     <col collapsed="false" hidden="false" max="1025" min="22" style="0" width="8.67611336032389"/>
   </cols>
@@ -9302,33 +9319,33 @@
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="77" width="10.8178137651822"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="77" width="13.2834008097166"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="77" width="22.1740890688259"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="77" width="17.8906882591093"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="77" width="24.5303643724696"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="77" width="18.5303643724696"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="77" width="17.8906882591093"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="77" width="13.2834008097166"/>
-    <col collapsed="false" hidden="false" max="10" min="9" style="77" width="19.1740890688259"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="77" width="25.4939271255061"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="77" width="15.9595141700405"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="77" width="17.5668016194332"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="77" width="20.8866396761134"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="77" width="15.9595141700405"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="77" width="17.5668016194332"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="77" width="25.4939271255061"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="77" width="13.3886639676113"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="77" width="22.3886639676113"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="77" width="17.995951417004"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="77" width="24.7449392712551"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="77" width="18.6396761133603"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="77" width="17.995951417004"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="77" width="13.3886639676113"/>
+    <col collapsed="false" hidden="false" max="10" min="9" style="77" width="19.3886639676113"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="77" width="25.6032388663968"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="77" width="16.0688259109312"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="77" width="17.6761133603239"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="77" width="20.995951417004"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="77" width="16.0688259109312"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="77" width="17.6761133603239"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="77" width="25.6032388663968"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="77" width="13.8178137651822"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="77" width="17.5668016194332"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="77" width="22.6032388663968"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="77" width="15.9595141700405"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="77" width="17.6761133603239"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="77" width="22.7085020242915"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="77" width="16.0688259109312"/>
     <col collapsed="false" hidden="false" max="22" min="22" style="77" width="10.8178137651822"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="77" width="22.6032388663968"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="77" width="12.6396761133603"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="77" width="22.7085020242915"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="77" width="12.748987854251"/>
     <col collapsed="false" hidden="false" max="25" min="25" style="77" width="10.8178137651822"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="77" width="22.6032388663968"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="77" width="15.9595141700405"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="77" width="22.7085020242915"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="77" width="16.0688259109312"/>
     <col collapsed="false" hidden="false" max="28" min="28" style="77" width="10.8178137651822"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="77" width="23.4574898785425"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="77" width="23.5668016194332"/>
     <col collapsed="false" hidden="false" max="1025" min="30" style="77" width="10.8178137651822"/>
   </cols>
   <sheetData>
@@ -11819,40 +11836,40 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A4:AD47"/>
+  <dimension ref="A4:AF47"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="P1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C25" activeCellId="0" sqref="C25"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="W7" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AC35" activeCellId="0" sqref="AC35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="34.2793522267206"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="32.5627530364372"/>
-    <col collapsed="false" hidden="false" max="6" min="3" style="0" width="21.5303643724696"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="23.5668016194332"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="21.5303643724696"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="31.9230769230769"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="30.7449392712551"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="32.6720647773279"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="30.1012145748988"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="33.9554655870445"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="32.9271255060729"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="27.336032388664"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="32.0445344129555"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="33.9554655870445"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="29.6923076923077"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="34.9838056680162"/>
-    <col collapsed="false" hidden="false" max="22" min="21" style="0" width="33.0728744939271"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="27.6356275303644"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="35.5708502024291"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="32.4858299595142"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="27.1943319838057"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="36.5991902834008"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="21.5303643724696"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="20.1376518218623"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="33.2226720647773"/>
-    <col collapsed="false" hidden="false" max="1025" min="31" style="0" width="8.67611336032389"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="34.5991902834008"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="32.7773279352227"/>
+    <col collapsed="false" hidden="false" max="6" min="3" style="0" width="21.7449392712551"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="23.6720647773279"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="21.7449392712551"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="32.1376518218623"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="31.0647773279352"/>
+    <col collapsed="false" hidden="false" max="13" min="12" style="0" width="32.8866396761134"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="30.3157894736842"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="34.2793522267206"/>
+    <col collapsed="false" hidden="false" max="17" min="16" style="0" width="33.1012145748988"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="27.5303643724696"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="32.2429149797571"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="34.2793522267206"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="32.9271255060729"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="35.2429149797571"/>
+    <col collapsed="false" hidden="false" max="24" min="23" style="0" width="33.4210526315789"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="27.8502024291498"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="35.8866396761134"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="32.6720647773279"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="27.4210526315789"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="36.8502024291498"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="21.7449392712551"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="20.246963562753"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="33.5263157894737"/>
+    <col collapsed="false" hidden="false" max="1025" min="33" style="0" width="8.67611336032389"/>
   </cols>
   <sheetData>
     <row r="4" customFormat="false" ht="21.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11871,34 +11888,36 @@
       </c>
       <c r="J4" s="123"/>
       <c r="K4" s="124"/>
-      <c r="L4" s="123" t="s">
+      <c r="L4" s="124"/>
+      <c r="M4" s="123" t="s">
         <v>160</v>
       </c>
-      <c r="M4" s="123"/>
-      <c r="N4" s="124"/>
-      <c r="O4" s="123" t="s">
+      <c r="N4" s="123"/>
+      <c r="O4" s="124"/>
+      <c r="P4" s="124"/>
+      <c r="Q4" s="123" t="s">
         <v>161</v>
       </c>
-      <c r="P4" s="123"/>
-      <c r="Q4" s="124"/>
-      <c r="R4" s="123" t="s">
+      <c r="R4" s="123"/>
+      <c r="S4" s="124"/>
+      <c r="T4" s="123" t="s">
         <v>162</v>
       </c>
-      <c r="S4" s="123"/>
-      <c r="T4" s="124"/>
-      <c r="U4" s="124"/>
-      <c r="V4" s="123" t="s">
+      <c r="U4" s="123"/>
+      <c r="V4" s="124"/>
+      <c r="W4" s="124"/>
+      <c r="X4" s="123" t="s">
         <v>163</v>
       </c>
-      <c r="W4" s="123"/>
-      <c r="Y4" s="123" t="s">
+      <c r="Y4" s="123"/>
+      <c r="AA4" s="123" t="s">
         <v>164</v>
       </c>
-      <c r="Z4" s="123"/>
-      <c r="AB4" s="123" t="s">
+      <c r="AB4" s="123"/>
+      <c r="AD4" s="123" t="s">
         <v>167</v>
       </c>
-      <c r="AC4" s="123"/>
+      <c r="AE4" s="123"/>
     </row>
     <row r="5" customFormat="false" ht="21.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="125" t="s">
@@ -11930,55 +11949,57 @@
       <c r="K5" s="129" t="s">
         <v>383</v>
       </c>
-      <c r="L5" s="126" t="s">
+      <c r="L5" s="129"/>
+      <c r="M5" s="126" t="s">
         <v>178</v>
       </c>
-      <c r="M5" s="127" t="s">
+      <c r="N5" s="127" t="s">
         <v>317</v>
       </c>
-      <c r="N5" s="129" t="s">
+      <c r="O5" s="129" t="s">
         <v>384</v>
       </c>
-      <c r="O5" s="126" t="s">
+      <c r="P5" s="129"/>
+      <c r="Q5" s="126" t="s">
         <v>210</v>
       </c>
-      <c r="P5" s="127" t="s">
+      <c r="R5" s="127" t="s">
         <v>318</v>
       </c>
-      <c r="Q5" s="128"/>
-      <c r="R5" s="126" t="s">
+      <c r="S5" s="128"/>
+      <c r="T5" s="126" t="s">
         <v>212</v>
       </c>
-      <c r="S5" s="127" t="s">
+      <c r="U5" s="127" t="s">
         <v>216</v>
       </c>
-      <c r="T5" s="128"/>
-      <c r="U5" s="128"/>
-      <c r="V5" s="126" t="s">
+      <c r="V5" s="128"/>
+      <c r="W5" s="128"/>
+      <c r="X5" s="126" t="s">
         <v>197</v>
       </c>
-      <c r="W5" s="127" t="s">
+      <c r="Y5" s="127" t="s">
         <v>318</v>
       </c>
-      <c r="X5" s="130" t="s">
+      <c r="Z5" s="130" t="s">
         <v>385</v>
       </c>
-      <c r="Y5" s="126" t="s">
+      <c r="AA5" s="126" t="s">
         <v>216</v>
       </c>
-      <c r="Z5" s="131" t="s">
+      <c r="AB5" s="131" t="s">
         <v>349</v>
       </c>
-      <c r="AA5" s="132" t="s">
+      <c r="AC5" s="132" t="s">
         <v>306</v>
       </c>
-      <c r="AB5" s="133" t="s">
+      <c r="AD5" s="133" t="s">
         <v>221</v>
       </c>
-      <c r="AC5" s="131" t="s">
+      <c r="AE5" s="131" t="s">
         <v>322</v>
       </c>
-      <c r="AD5" s="134" t="s">
+      <c r="AF5" s="134" t="s">
         <v>386</v>
       </c>
     </row>
@@ -11992,7 +12013,9 @@
       <c r="C6" s="127" t="s">
         <v>324</v>
       </c>
-      <c r="D6" s="124"/>
+      <c r="D6" s="125" t="s">
+        <v>387</v>
+      </c>
       <c r="E6" s="126" t="s">
         <v>184</v>
       </c>
@@ -12000,7 +12023,7 @@
         <v>326</v>
       </c>
       <c r="G6" s="129" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H6" s="129"/>
       <c r="I6" s="126" t="s">
@@ -12010,63 +12033,65 @@
         <v>327</v>
       </c>
       <c r="K6" s="129" t="s">
-        <v>388</v>
-      </c>
-      <c r="L6" s="126" t="s">
+        <v>389</v>
+      </c>
+      <c r="L6" s="129"/>
+      <c r="M6" s="126" t="s">
         <v>192</v>
       </c>
-      <c r="M6" s="127" t="s">
+      <c r="N6" s="127" t="s">
         <v>330</v>
       </c>
-      <c r="N6" s="129" t="s">
-        <v>389</v>
-      </c>
-      <c r="O6" s="126" t="s">
+      <c r="O6" s="129" t="s">
+        <v>390</v>
+      </c>
+      <c r="P6" s="129"/>
+      <c r="Q6" s="126" t="s">
         <v>195</v>
       </c>
-      <c r="P6" s="127" t="s">
+      <c r="R6" s="127" t="s">
         <v>331</v>
       </c>
-      <c r="Q6" s="128"/>
-      <c r="R6" s="126" t="s">
+      <c r="S6" s="128"/>
+      <c r="T6" s="126" t="s">
         <v>232</v>
       </c>
-      <c r="S6" s="127" t="s">
+      <c r="U6" s="127" t="s">
         <v>235</v>
       </c>
-      <c r="T6" s="128"/>
-      <c r="U6" s="128"/>
-      <c r="V6" s="126" t="s">
+      <c r="V6" s="128"/>
+      <c r="W6" s="128"/>
+      <c r="X6" s="126" t="s">
         <v>214</v>
       </c>
-      <c r="W6" s="127" t="s">
+      <c r="Y6" s="127" t="s">
         <v>331</v>
       </c>
-      <c r="X6" s="130" t="s">
-        <v>390</v>
-      </c>
-      <c r="Y6" s="126" t="s">
+      <c r="Z6" s="130" t="s">
+        <v>391</v>
+      </c>
+      <c r="AA6" s="126" t="s">
         <v>235</v>
       </c>
-      <c r="Z6" s="131" t="s">
+      <c r="AB6" s="131" t="s">
         <v>355</v>
       </c>
-      <c r="AA6" s="132" t="s">
+      <c r="AC6" s="132" t="s">
         <v>308</v>
       </c>
-      <c r="AB6" s="133" t="s">
+      <c r="AD6" s="133" t="s">
         <v>238</v>
       </c>
-      <c r="AC6" s="131" t="s">
+      <c r="AE6" s="131" t="s">
         <v>334</v>
       </c>
-      <c r="AD6" s="134" t="s">
-        <v>391</v>
+      <c r="AF6" s="134" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="21.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="125" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B7" s="126" t="s">
         <v>240</v>
@@ -12081,7 +12106,7 @@
       <c r="F7" s="124"/>
       <c r="G7" s="124"/>
       <c r="H7" s="125" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="I7" s="126" t="s">
         <v>204</v>
@@ -12090,60 +12115,62 @@
         <v>336</v>
       </c>
       <c r="K7" s="129" t="s">
-        <v>394</v>
-      </c>
-      <c r="L7" s="126" t="s">
+        <v>395</v>
+      </c>
+      <c r="L7" s="129"/>
+      <c r="M7" s="126" t="s">
         <v>208</v>
       </c>
-      <c r="M7" s="127" t="s">
+      <c r="N7" s="127" t="s">
         <v>338</v>
       </c>
-      <c r="N7" s="129" t="s">
-        <v>395</v>
-      </c>
-      <c r="O7" s="126" t="s">
+      <c r="O7" s="129" t="s">
+        <v>396</v>
+      </c>
+      <c r="P7" s="129"/>
+      <c r="Q7" s="126" t="s">
         <v>231</v>
       </c>
-      <c r="P7" s="127" t="s">
+      <c r="R7" s="127" t="s">
         <v>339</v>
       </c>
-      <c r="Q7" s="128"/>
-      <c r="R7" s="126" t="s">
+      <c r="S7" s="128"/>
+      <c r="T7" s="126" t="s">
         <v>247</v>
       </c>
-      <c r="S7" s="127" t="s">
+      <c r="U7" s="127" t="s">
         <v>340</v>
       </c>
-      <c r="T7" s="128"/>
-      <c r="U7" s="128"/>
-      <c r="V7" s="126" t="s">
+      <c r="V7" s="128"/>
+      <c r="W7" s="128"/>
+      <c r="X7" s="126" t="s">
         <v>233</v>
       </c>
-      <c r="W7" s="127" t="s">
+      <c r="Y7" s="127" t="s">
         <v>339</v>
       </c>
-      <c r="X7" s="130" t="s">
-        <v>396</v>
-      </c>
-      <c r="Y7" s="126" t="s">
+      <c r="Z7" s="130" t="s">
+        <v>397</v>
+      </c>
+      <c r="AA7" s="126" t="s">
         <v>340</v>
       </c>
-      <c r="Z7" s="131" t="s">
+      <c r="AB7" s="131" t="s">
         <v>360</v>
       </c>
-      <c r="AA7" s="132" t="s">
+      <c r="AC7" s="132" t="s">
         <v>310</v>
       </c>
-      <c r="AB7" s="133" t="s">
+      <c r="AD7" s="133" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="21.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="125" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B8" s="126" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C8" s="124"/>
       <c r="D8" s="125" t="s">
@@ -12155,7 +12182,7 @@
       <c r="F8" s="124"/>
       <c r="G8" s="124"/>
       <c r="H8" s="125" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="I8" s="126" t="s">
         <v>225</v>
@@ -12164,61 +12191,63 @@
         <v>342</v>
       </c>
       <c r="K8" s="129" t="s">
-        <v>400</v>
-      </c>
-      <c r="L8" s="126" t="s">
+        <v>401</v>
+      </c>
+      <c r="L8" s="129"/>
+      <c r="M8" s="126" t="s">
         <v>229</v>
       </c>
-      <c r="M8" s="127" t="s">
+      <c r="N8" s="127" t="s">
         <v>344</v>
       </c>
-      <c r="N8" s="129" t="s">
-        <v>401</v>
-      </c>
-      <c r="O8" s="126" t="s">
+      <c r="O8" s="129" t="s">
+        <v>402</v>
+      </c>
+      <c r="P8" s="129"/>
+      <c r="Q8" s="126" t="s">
         <v>246</v>
       </c>
-      <c r="P8" s="127" t="s">
+      <c r="R8" s="127" t="s">
         <v>322</v>
       </c>
-      <c r="Q8" s="128"/>
-      <c r="R8" s="126" t="s">
+      <c r="S8" s="128"/>
+      <c r="T8" s="126" t="s">
         <v>287</v>
       </c>
-      <c r="S8" s="127" t="s">
+      <c r="U8" s="127" t="s">
         <v>281</v>
       </c>
-      <c r="T8" s="128"/>
-      <c r="U8" s="128"/>
-      <c r="V8" s="126" t="s">
+      <c r="V8" s="128"/>
+      <c r="W8" s="128"/>
+      <c r="X8" s="126" t="s">
         <v>238</v>
       </c>
-      <c r="W8" s="127" t="s">
+      <c r="Y8" s="127" t="s">
         <v>322</v>
       </c>
-      <c r="X8" s="130" t="s">
-        <v>402</v>
-      </c>
-      <c r="Y8" s="126" t="s">
+      <c r="Z8" s="130" t="s">
+        <v>403</v>
+      </c>
+      <c r="AA8" s="126" t="s">
         <v>281</v>
       </c>
-      <c r="Z8" s="131" t="s">
+      <c r="AB8" s="131" t="s">
         <v>319</v>
       </c>
-      <c r="AA8" s="134" t="s">
-        <v>403</v>
+      <c r="AC8" s="134" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="21.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="125" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B9" s="126" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C9" s="124"/>
       <c r="D9" s="125" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="E9" s="126" t="s">
         <v>240</v>
@@ -12226,7 +12255,7 @@
       <c r="F9" s="124"/>
       <c r="G9" s="124"/>
       <c r="H9" s="125" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="I9" s="126" t="s">
         <v>242</v>
@@ -12235,69 +12264,75 @@
         <v>331</v>
       </c>
       <c r="K9" s="129" t="s">
-        <v>407</v>
-      </c>
-      <c r="L9" s="126" t="s">
+        <v>408</v>
+      </c>
+      <c r="L9" s="129"/>
+      <c r="M9" s="126" t="s">
         <v>245</v>
       </c>
-      <c r="M9" s="127" t="s">
+      <c r="N9" s="127" t="s">
         <v>232</v>
       </c>
-      <c r="N9" s="129" t="s">
+      <c r="O9" s="129" t="s">
         <v>255</v>
       </c>
-      <c r="O9" s="126" t="s">
+      <c r="P9" s="129"/>
+      <c r="Q9" s="126" t="s">
         <v>214</v>
       </c>
-      <c r="P9" s="127" t="s">
+      <c r="R9" s="127" t="s">
         <v>334</v>
       </c>
-      <c r="Q9" s="128"/>
-      <c r="R9" s="126" t="s">
+      <c r="S9" s="128"/>
+      <c r="T9" s="126" t="s">
         <v>295</v>
       </c>
-      <c r="S9" s="127" t="s">
+      <c r="U9" s="127" t="s">
         <v>289</v>
       </c>
-      <c r="T9" s="128"/>
-      <c r="U9" s="128"/>
-      <c r="V9" s="126" t="s">
+      <c r="V9" s="128"/>
+      <c r="W9" s="128"/>
+      <c r="X9" s="126" t="s">
         <v>253</v>
       </c>
-      <c r="W9" s="127" t="s">
+      <c r="Y9" s="127" t="s">
         <v>334</v>
       </c>
-      <c r="X9" s="130" t="s">
-        <v>408</v>
-      </c>
-      <c r="Y9" s="126" t="s">
+      <c r="Z9" s="130" t="s">
+        <v>409</v>
+      </c>
+      <c r="AA9" s="126" t="s">
         <v>289</v>
       </c>
-      <c r="Z9" s="131" t="s">
+      <c r="AB9" s="131" t="s">
         <v>332</v>
       </c>
-      <c r="AA9" s="134" t="s">
-        <v>409</v>
+      <c r="AC9" s="134" t="s">
+        <v>410</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="21.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="125" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B10" s="126" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C10" s="124"/>
-      <c r="D10" s="124"/>
+      <c r="D10" s="125" t="s">
+        <v>388</v>
+      </c>
       <c r="E10" s="126" t="s">
-        <v>412</v>
+        <v>326</v>
       </c>
       <c r="F10" s="127" t="s">
-        <v>412</v>
-      </c>
-      <c r="G10" s="127"/>
+        <v>413</v>
+      </c>
+      <c r="G10" s="127" t="s">
+        <v>413</v>
+      </c>
       <c r="H10" s="125" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="I10" s="126" t="s">
         <v>255</v>
@@ -12306,116 +12341,118 @@
         <v>339</v>
       </c>
       <c r="K10" s="129" t="s">
-        <v>414</v>
-      </c>
-      <c r="L10" s="126" t="s">
+        <v>415</v>
+      </c>
+      <c r="L10" s="129"/>
+      <c r="M10" s="126" t="s">
         <v>259</v>
       </c>
-      <c r="M10" s="127" t="s">
+      <c r="N10" s="127" t="s">
         <v>247</v>
       </c>
-      <c r="N10" s="129" t="s">
+      <c r="O10" s="129" t="s">
         <v>242</v>
       </c>
-      <c r="O10" s="126" t="s">
+      <c r="P10" s="129"/>
+      <c r="Q10" s="126" t="s">
         <v>233</v>
       </c>
-      <c r="P10" s="127" t="s">
+      <c r="R10" s="127" t="s">
         <v>347</v>
       </c>
-      <c r="Q10" s="128"/>
-      <c r="R10" s="126" t="s">
+      <c r="S10" s="128"/>
+      <c r="T10" s="126" t="s">
         <v>279</v>
       </c>
-      <c r="S10" s="127" t="s">
+      <c r="U10" s="127" t="s">
         <v>272</v>
       </c>
-      <c r="T10" s="128"/>
-      <c r="U10" s="128"/>
-      <c r="V10" s="126" t="s">
+      <c r="V10" s="128"/>
+      <c r="W10" s="128"/>
+      <c r="X10" s="126" t="s">
         <v>248</v>
       </c>
-      <c r="W10" s="127" t="s">
+      <c r="Y10" s="127" t="s">
         <v>347</v>
       </c>
-      <c r="X10" s="130" t="s">
-        <v>415</v>
-      </c>
-      <c r="Y10" s="126" t="s">
+      <c r="Z10" s="130" t="s">
+        <v>416</v>
+      </c>
+      <c r="AA10" s="126" t="s">
         <v>272</v>
       </c>
-      <c r="Z10" s="131" t="s">
+      <c r="AB10" s="131" t="s">
         <v>341</v>
       </c>
-      <c r="AA10" s="134" t="s">
-        <v>416</v>
+      <c r="AC10" s="134" t="s">
+        <v>417</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="21.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="125" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B11" s="126" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C11" s="124"/>
       <c r="D11" s="125" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="E11" s="126" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="F11" s="124"/>
       <c r="G11" s="124"/>
       <c r="H11" s="125" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="I11" s="126" t="s">
         <v>265</v>
       </c>
-      <c r="K11" s="125" t="s">
+      <c r="L11" s="125" t="s">
         <v>169</v>
       </c>
-      <c r="L11" s="126" t="s">
+      <c r="M11" s="126" t="s">
         <v>169</v>
       </c>
-      <c r="M11" s="124"/>
-      <c r="N11" s="125" t="s">
-        <v>420</v>
-      </c>
-      <c r="O11" s="126" t="s">
+      <c r="N11" s="124"/>
+      <c r="P11" s="135" t="s">
+        <v>421</v>
+      </c>
+      <c r="Q11" s="126" t="s">
         <v>238</v>
       </c>
-      <c r="P11" s="127" t="s">
+      <c r="R11" s="127" t="s">
         <v>369</v>
       </c>
-      <c r="Q11" s="128"/>
-      <c r="R11" s="126" t="s">
+      <c r="S11" s="128"/>
+      <c r="T11" s="126" t="s">
         <v>260</v>
       </c>
-      <c r="S11" s="127" t="s">
+      <c r="U11" s="127" t="s">
         <v>346</v>
       </c>
-      <c r="T11" s="134" t="s">
-        <v>421</v>
-      </c>
-      <c r="U11" s="125" t="s">
+      <c r="V11" s="136" t="s">
+        <v>422</v>
+      </c>
+      <c r="W11" s="125" t="s">
         <v>169</v>
       </c>
-      <c r="V11" s="126" t="s">
+      <c r="X11" s="126" t="s">
         <v>169</v>
       </c>
-      <c r="W11" s="124"/>
-      <c r="X11" s="134" t="s">
+      <c r="Y11" s="124"/>
+      <c r="Z11" s="134" t="s">
         <v>169</v>
       </c>
-      <c r="Y11" s="126" t="s">
+      <c r="AA11" s="126" t="s">
         <v>169</v>
       </c>
-      <c r="AA11" s="134" t="s">
+      <c r="AC11" s="134" t="s">
         <v>169</v>
       </c>
-      <c r="AB11" s="133" t="s">
+      <c r="AD11" s="133" t="s">
         <v>169</v>
       </c>
     </row>
@@ -12426,50 +12463,50 @@
       <c r="F12" s="124"/>
       <c r="G12" s="124"/>
       <c r="H12" s="125" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="I12" s="126" t="s">
         <v>275</v>
       </c>
-      <c r="K12" s="125" t="s">
+      <c r="L12" s="125" t="s">
         <v>182</v>
       </c>
-      <c r="L12" s="126" t="s">
+      <c r="M12" s="126" t="s">
         <v>182</v>
       </c>
-      <c r="M12" s="124"/>
-      <c r="N12" s="125" t="s">
-        <v>423</v>
-      </c>
-      <c r="O12" s="126" t="s">
+      <c r="N12" s="124"/>
+      <c r="P12" s="125" t="s">
+        <v>424</v>
+      </c>
+      <c r="Q12" s="126" t="s">
         <v>253</v>
       </c>
-      <c r="P12" s="127" t="s">
+      <c r="R12" s="127" t="s">
         <v>352</v>
       </c>
-      <c r="Q12" s="128"/>
-      <c r="R12" s="126" t="s">
+      <c r="S12" s="128"/>
+      <c r="T12" s="126" t="s">
         <v>269</v>
       </c>
-      <c r="S12" s="127" t="s">
+      <c r="U12" s="127" t="s">
         <v>352</v>
       </c>
-      <c r="T12" s="134" t="s">
-        <v>424</v>
-      </c>
-      <c r="U12" s="124"/>
-      <c r="V12" s="124"/>
+      <c r="V12" s="134" t="s">
+        <v>425</v>
+      </c>
       <c r="W12" s="124"/>
-      <c r="X12" s="134" t="s">
+      <c r="X12" s="124"/>
+      <c r="Y12" s="124"/>
+      <c r="Z12" s="134" t="s">
         <v>182</v>
       </c>
-      <c r="Y12" s="126" t="s">
+      <c r="AA12" s="126" t="s">
         <v>182</v>
       </c>
-      <c r="AA12" s="134" t="s">
+      <c r="AC12" s="134" t="s">
         <v>182</v>
       </c>
-      <c r="AB12" s="133" t="s">
+      <c r="AD12" s="133" t="s">
         <v>182</v>
       </c>
     </row>
@@ -12480,38 +12517,38 @@
       <c r="F13" s="124"/>
       <c r="G13" s="124"/>
       <c r="H13" s="125" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="I13" s="126" t="s">
         <v>283</v>
       </c>
-      <c r="K13" s="125" t="s">
-        <v>426</v>
-      </c>
-      <c r="L13" s="126" t="s">
+      <c r="L13" s="125" t="s">
+        <v>427</v>
+      </c>
+      <c r="M13" s="126" t="s">
         <v>240</v>
       </c>
-      <c r="M13" s="124"/>
-      <c r="N13" s="125" t="s">
-        <v>427</v>
-      </c>
-      <c r="O13" s="126" t="s">
+      <c r="N13" s="124"/>
+      <c r="P13" s="125" t="s">
+        <v>428</v>
+      </c>
+      <c r="Q13" s="126" t="s">
         <v>308</v>
       </c>
-      <c r="P13" s="124"/>
-      <c r="Q13" s="125" t="s">
+      <c r="R13" s="124"/>
+      <c r="S13" s="125" t="s">
         <v>169</v>
       </c>
-      <c r="R13" s="126" t="s">
+      <c r="T13" s="126" t="s">
         <v>169</v>
       </c>
-      <c r="U13" s="124"/>
-      <c r="V13" s="124"/>
       <c r="W13" s="124"/>
-      <c r="X13" s="134" t="s">
-        <v>428</v>
-      </c>
-      <c r="Y13" s="126" t="s">
+      <c r="X13" s="124"/>
+      <c r="Y13" s="124"/>
+      <c r="Z13" s="134" t="s">
+        <v>429</v>
+      </c>
+      <c r="AA13" s="126" t="s">
         <v>240</v>
       </c>
     </row>
@@ -12522,7 +12559,7 @@
       <c r="F14" s="124"/>
       <c r="G14" s="124"/>
       <c r="H14" s="125" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="I14" s="126" t="s">
         <v>291</v>
@@ -12531,28 +12568,29 @@
         <v>362</v>
       </c>
       <c r="K14" s="134" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="L14" s="124"/>
       <c r="M14" s="124"/>
-      <c r="N14" s="125" t="s">
-        <v>431</v>
-      </c>
-      <c r="O14" s="126" t="s">
+      <c r="N14" s="124"/>
+      <c r="P14" s="125" t="s">
+        <v>432</v>
+      </c>
+      <c r="Q14" s="126" t="s">
         <v>310</v>
       </c>
-      <c r="P14" s="124"/>
-      <c r="Q14" s="125" t="s">
+      <c r="R14" s="124"/>
+      <c r="S14" s="125" t="s">
         <v>182</v>
       </c>
-      <c r="R14" s="126" t="s">
+      <c r="T14" s="126" t="s">
         <v>182</v>
       </c>
-      <c r="S14" s="124"/>
-      <c r="T14" s="124"/>
       <c r="U14" s="124"/>
       <c r="V14" s="124"/>
       <c r="W14" s="124"/>
+      <c r="X14" s="124"/>
+      <c r="Y14" s="124"/>
     </row>
     <row r="15" customFormat="false" ht="21.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B15" s="124"/>
@@ -12571,35 +12609,41 @@
         <v>367</v>
       </c>
       <c r="K15" s="134" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="L15" s="124"/>
       <c r="M15" s="124"/>
-      <c r="N15" s="125" t="s">
-        <v>433</v>
-      </c>
-      <c r="O15" s="126" t="s">
+      <c r="N15" s="124"/>
+      <c r="P15" s="125" t="s">
+        <v>434</v>
+      </c>
+      <c r="Q15" s="126" t="s">
         <v>349</v>
       </c>
-      <c r="P15" s="124"/>
-      <c r="Q15" s="125" t="s">
-        <v>426</v>
-      </c>
-      <c r="R15" s="126" t="s">
+      <c r="R15" s="124"/>
+      <c r="S15" s="125" t="s">
+        <v>427</v>
+      </c>
+      <c r="T15" s="126" t="s">
         <v>240</v>
       </c>
-      <c r="S15" s="124"/>
-      <c r="U15" s="125" t="s">
-        <v>434</v>
-      </c>
-      <c r="V15" s="126" t="s">
+      <c r="U15" s="127" t="s">
         <v>435</v>
       </c>
-      <c r="W15" s="127" t="s">
+      <c r="V15" s="130" t="s">
         <v>436</v>
       </c>
-      <c r="X15" s="134" t="s">
+      <c r="W15" s="130" t="s">
+        <v>436</v>
+      </c>
+      <c r="X15" s="126" t="s">
         <v>437</v>
+      </c>
+      <c r="Y15" s="127" t="s">
+        <v>438</v>
+      </c>
+      <c r="Z15" s="134" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="21.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12610,45 +12654,50 @@
       <c r="F16" s="124"/>
       <c r="G16" s="124"/>
       <c r="H16" s="125" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="I16" s="126" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="J16" s="127" t="s">
         <v>371</v>
       </c>
       <c r="K16" s="134" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="L16" s="124"/>
       <c r="M16" s="124"/>
-      <c r="N16" s="125" t="s">
-        <v>440</v>
-      </c>
-      <c r="O16" s="126" t="s">
+      <c r="N16" s="124"/>
+      <c r="P16" s="125" t="s">
+        <v>442</v>
+      </c>
+      <c r="Q16" s="126" t="s">
         <v>302</v>
       </c>
-      <c r="P16" s="127" t="s">
+      <c r="R16" s="127" t="s">
         <v>376</v>
       </c>
-      <c r="Q16" s="134" t="s">
-        <v>441</v>
-      </c>
-      <c r="R16" s="124"/>
-      <c r="S16" s="124"/>
+      <c r="S16" s="134" t="s">
+        <v>443</v>
+      </c>
       <c r="T16" s="124"/>
-      <c r="U16" s="125" t="s">
-        <v>442</v>
-      </c>
-      <c r="V16" s="126" t="s">
-        <v>443</v>
-      </c>
-      <c r="W16" s="127" t="s">
+      <c r="U16" s="127" t="s">
         <v>444</v>
       </c>
-      <c r="X16" s="134" t="s">
+      <c r="V16" s="130" t="s">
         <v>445</v>
+      </c>
+      <c r="W16" s="130" t="s">
+        <v>445</v>
+      </c>
+      <c r="X16" s="126" t="s">
+        <v>446</v>
+      </c>
+      <c r="Y16" s="127" t="s">
+        <v>447</v>
+      </c>
+      <c r="Z16" s="134" t="s">
+        <v>448</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="21.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12658,42 +12707,47 @@
       <c r="E17" s="124"/>
       <c r="F17" s="124"/>
       <c r="G17" s="124"/>
-      <c r="H17" s="135"/>
+      <c r="H17" s="137"/>
       <c r="I17" s="124"/>
       <c r="J17" s="127" t="s">
         <v>373</v>
       </c>
       <c r="K17" s="134" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="L17" s="124"/>
       <c r="M17" s="124"/>
-      <c r="N17" s="125" t="s">
+      <c r="N17" s="124"/>
+      <c r="P17" s="125" t="s">
+        <v>442</v>
+      </c>
+      <c r="Q17" s="126" t="s">
+        <v>304</v>
+      </c>
+      <c r="R17" s="124"/>
+      <c r="S17" s="125" t="s">
+        <v>411</v>
+      </c>
+      <c r="T17" s="126" t="s">
+        <v>412</v>
+      </c>
+      <c r="U17" s="127" t="s">
+        <v>450</v>
+      </c>
+      <c r="V17" s="130" t="s">
+        <v>451</v>
+      </c>
+      <c r="W17" s="130" t="s">
+        <v>451</v>
+      </c>
+      <c r="X17" s="126" t="s">
         <v>440</v>
       </c>
-      <c r="O17" s="126" t="s">
-        <v>304</v>
-      </c>
-      <c r="P17" s="124"/>
-      <c r="Q17" s="125" t="s">
-        <v>410</v>
-      </c>
-      <c r="R17" s="126" t="s">
-        <v>411</v>
-      </c>
-      <c r="S17" s="124"/>
-      <c r="T17" s="124"/>
-      <c r="U17" s="125" t="s">
-        <v>447</v>
-      </c>
-      <c r="V17" s="126" t="s">
-        <v>438</v>
-      </c>
-      <c r="W17" s="127" t="s">
-        <v>448</v>
-      </c>
-      <c r="X17" s="134" t="s">
-        <v>449</v>
+      <c r="Y17" s="127" t="s">
+        <v>452</v>
+      </c>
+      <c r="Z17" s="134" t="s">
+        <v>453</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="21.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12707,40 +12761,36 @@
         <v>200</v>
       </c>
       <c r="K18" s="134" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="L18" s="124"/>
-      <c r="M18" s="124"/>
-      <c r="N18" s="125" t="s">
-        <v>451</v>
-      </c>
-      <c r="O18" s="126" t="s">
+      <c r="N18" s="124"/>
+      <c r="P18" s="125" t="s">
+        <v>455</v>
+      </c>
+      <c r="Q18" s="126" t="s">
         <v>300</v>
       </c>
-      <c r="P18" s="124"/>
-      <c r="Q18" s="125" t="s">
-        <v>452</v>
-      </c>
-      <c r="R18" s="126" t="s">
-        <v>453</v>
-      </c>
-      <c r="S18" s="127" t="s">
-        <v>454</v>
-      </c>
-      <c r="T18" s="134" t="s">
-        <v>434</v>
-      </c>
-      <c r="U18" s="125" t="s">
-        <v>455</v>
-      </c>
-      <c r="V18" s="126" t="s">
+      <c r="R18" s="127" t="s">
+        <v>438</v>
+      </c>
+      <c r="S18" s="130" t="s">
         <v>456</v>
       </c>
-      <c r="W18" s="127" t="s">
+      <c r="T18" s="126" t="s">
         <v>457</v>
       </c>
-      <c r="X18" s="134" t="s">
+      <c r="W18" s="125" t="s">
         <v>458</v>
+      </c>
+      <c r="X18" s="126" t="s">
+        <v>459</v>
+      </c>
+      <c r="Y18" s="127" t="s">
+        <v>460</v>
+      </c>
+      <c r="Z18" s="134" t="s">
+        <v>461</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="21.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12751,52 +12801,48 @@
       <c r="F19" s="124"/>
       <c r="G19" s="124"/>
       <c r="J19" s="127" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="K19" s="134" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="L19" s="124"/>
       <c r="M19" s="124"/>
-      <c r="N19" s="125" t="s">
-        <v>461</v>
-      </c>
-      <c r="O19" s="126" t="s">
+      <c r="P19" s="125" t="s">
+        <v>464</v>
+      </c>
+      <c r="Q19" s="126" t="s">
         <v>293</v>
       </c>
-      <c r="P19" s="124"/>
-      <c r="Q19" s="125" t="s">
-        <v>462</v>
-      </c>
-      <c r="R19" s="126" t="s">
-        <v>463</v>
-      </c>
-      <c r="S19" s="127" t="s">
-        <v>464</v>
-      </c>
-      <c r="T19" s="134" t="s">
-        <v>442</v>
-      </c>
-      <c r="U19" s="125" t="s">
+      <c r="R19" s="127" t="s">
         <v>465</v>
       </c>
-      <c r="V19" s="126" t="s">
+      <c r="S19" s="130" t="s">
         <v>466</v>
       </c>
-      <c r="W19" s="127" t="s">
+      <c r="T19" s="126" t="s">
         <v>467</v>
       </c>
-      <c r="X19" s="130" t="s">
+      <c r="W19" s="125" t="s">
         <v>468</v>
       </c>
-      <c r="Y19" s="126" t="s">
+      <c r="X19" s="126" t="s">
         <v>469</v>
       </c>
-      <c r="Z19" s="131" t="s">
+      <c r="Y19" s="127" t="s">
         <v>470</v>
       </c>
-      <c r="AA19" s="134" t="s">
+      <c r="Z19" s="130" t="s">
         <v>471</v>
+      </c>
+      <c r="AA19" s="126" t="s">
+        <v>472</v>
+      </c>
+      <c r="AB19" s="131" t="s">
+        <v>473</v>
+      </c>
+      <c r="AC19" s="134" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="21.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12807,51 +12853,48 @@
       <c r="F20" s="124"/>
       <c r="G20" s="124"/>
       <c r="J20" s="127" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="K20" s="134" t="s">
-        <v>473</v>
-      </c>
-      <c r="M20" s="124"/>
-      <c r="N20" s="125" t="s">
-        <v>474</v>
-      </c>
-      <c r="O20" s="126" t="s">
+        <v>476</v>
+      </c>
+      <c r="L20" s="124"/>
+      <c r="N20" s="124"/>
+      <c r="P20" s="125" t="s">
+        <v>477</v>
+      </c>
+      <c r="Q20" s="126" t="s">
         <v>269</v>
       </c>
-      <c r="P20" s="124"/>
-      <c r="Q20" s="125" t="s">
-        <v>475</v>
-      </c>
-      <c r="R20" s="126" t="s">
-        <v>476</v>
-      </c>
-      <c r="S20" s="127" t="s">
-        <v>477</v>
-      </c>
-      <c r="T20" s="134" t="s">
-        <v>447</v>
-      </c>
-      <c r="U20" s="125" t="s">
+      <c r="R20" s="127" t="s">
+        <v>452</v>
+      </c>
+      <c r="S20" s="130" t="s">
         <v>478</v>
       </c>
-      <c r="V20" s="126" t="s">
+      <c r="T20" s="126" t="s">
         <v>479</v>
       </c>
-      <c r="W20" s="127" t="s">
+      <c r="W20" s="125" t="s">
         <v>480</v>
       </c>
-      <c r="X20" s="130" t="s">
+      <c r="X20" s="126" t="s">
         <v>481</v>
       </c>
-      <c r="Y20" s="126" t="s">
+      <c r="Y20" s="127" t="s">
         <v>482</v>
       </c>
-      <c r="Z20" s="131" t="s">
+      <c r="Z20" s="130" t="s">
         <v>483</v>
       </c>
-      <c r="AA20" s="134" t="s">
+      <c r="AA20" s="126" t="s">
         <v>484</v>
+      </c>
+      <c r="AB20" s="131" t="s">
+        <v>485</v>
+      </c>
+      <c r="AC20" s="134" t="s">
+        <v>486</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="21.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12861,44 +12904,45 @@
       <c r="E21" s="124"/>
       <c r="F21" s="124"/>
       <c r="G21" s="124"/>
-      <c r="K21" s="124"/>
-      <c r="N21" s="125" t="s">
-        <v>485</v>
-      </c>
-      <c r="O21" s="126" t="s">
+      <c r="P21" s="125" t="s">
+        <v>487</v>
+      </c>
+      <c r="Q21" s="126" t="s">
         <v>277</v>
       </c>
-      <c r="P21" s="124"/>
-      <c r="Q21" s="125" t="s">
-        <v>486</v>
-      </c>
-      <c r="R21" s="126" t="s">
-        <v>487</v>
-      </c>
-      <c r="S21" s="127" t="s">
-        <v>469</v>
-      </c>
-      <c r="T21" s="130" t="s">
+      <c r="R21" s="127" t="s">
+        <v>470</v>
+      </c>
+      <c r="S21" s="130" t="s">
         <v>488</v>
       </c>
-      <c r="U21" s="130"/>
-      <c r="V21" s="126" t="s">
-        <v>470</v>
-      </c>
-      <c r="W21" s="127" t="s">
+      <c r="T21" s="126" t="s">
         <v>489</v>
       </c>
-      <c r="X21" s="130" t="s">
+      <c r="U21" s="127" t="s">
+        <v>472</v>
+      </c>
+      <c r="V21" s="130" t="s">
         <v>490</v>
       </c>
-      <c r="Y21" s="126" t="s">
+      <c r="W21" s="130"/>
+      <c r="X21" s="126" t="s">
+        <v>473</v>
+      </c>
+      <c r="Y21" s="127" t="s">
         <v>491</v>
       </c>
-      <c r="Z21" s="131" t="s">
+      <c r="Z21" s="130" t="s">
         <v>492</v>
       </c>
-      <c r="AA21" s="134" t="s">
+      <c r="AA21" s="126" t="s">
         <v>493</v>
+      </c>
+      <c r="AB21" s="131" t="s">
+        <v>494</v>
+      </c>
+      <c r="AC21" s="134" t="s">
+        <v>495</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="21.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12908,30 +12952,32 @@
       <c r="E22" s="124"/>
       <c r="F22" s="124"/>
       <c r="G22" s="124"/>
-      <c r="N22" s="125" t="s">
-        <v>494</v>
-      </c>
-      <c r="O22" s="126" t="s">
+      <c r="P22" s="125" t="s">
+        <v>496</v>
+      </c>
+      <c r="Q22" s="126" t="s">
         <v>285</v>
       </c>
-      <c r="P22" s="124"/>
-      <c r="Q22" s="125" t="s">
-        <v>495</v>
-      </c>
-      <c r="R22" s="126" t="s">
-        <v>496</v>
-      </c>
-      <c r="S22" s="127" t="s">
+      <c r="R22" s="127" t="s">
         <v>482</v>
       </c>
-      <c r="T22" s="130" t="s">
+      <c r="S22" s="130" t="s">
         <v>497</v>
       </c>
-      <c r="U22" s="130"/>
-      <c r="V22" s="126" t="s">
+      <c r="T22" s="126" t="s">
         <v>498</v>
       </c>
-      <c r="W22" s="124"/>
+      <c r="U22" s="127" t="s">
+        <v>484</v>
+      </c>
+      <c r="V22" s="130" t="s">
+        <v>499</v>
+      </c>
+      <c r="W22" s="130"/>
+      <c r="X22" s="126" t="s">
+        <v>500</v>
+      </c>
+      <c r="Y22" s="124"/>
     </row>
     <row r="23" customFormat="false" ht="21.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B23" s="124"/>
@@ -12940,30 +12986,45 @@
       <c r="E23" s="124"/>
       <c r="F23" s="124"/>
       <c r="G23" s="124"/>
-      <c r="N23" s="125" t="s">
+      <c r="J23" s="127" t="s">
+        <v>501</v>
+      </c>
+      <c r="K23" s="129" t="s">
+        <v>502</v>
+      </c>
+      <c r="L23" s="129"/>
+      <c r="M23" s="126" t="s">
+        <v>503</v>
+      </c>
+      <c r="N23" s="127" t="s">
+        <v>452</v>
+      </c>
+      <c r="P23" s="125" t="s">
         <v>169</v>
       </c>
-      <c r="O23" s="126" t="s">
+      <c r="Q23" s="126" t="s">
         <v>169</v>
       </c>
-      <c r="P23" s="124"/>
-      <c r="Q23" s="125" t="s">
-        <v>499</v>
-      </c>
-      <c r="R23" s="126" t="s">
-        <v>500</v>
-      </c>
-      <c r="S23" s="127" t="s">
+      <c r="R23" s="127" t="s">
         <v>491</v>
       </c>
-      <c r="T23" s="130" t="s">
-        <v>501</v>
-      </c>
-      <c r="U23" s="130"/>
-      <c r="V23" s="126" t="s">
-        <v>492</v>
-      </c>
-      <c r="W23" s="124"/>
+      <c r="S23" s="130" t="s">
+        <v>504</v>
+      </c>
+      <c r="T23" s="126" t="s">
+        <v>505</v>
+      </c>
+      <c r="U23" s="127" t="s">
+        <v>493</v>
+      </c>
+      <c r="V23" s="130" t="s">
+        <v>506</v>
+      </c>
+      <c r="W23" s="130"/>
+      <c r="X23" s="126" t="s">
+        <v>494</v>
+      </c>
+      <c r="Y23" s="124"/>
     </row>
     <row r="24" customFormat="false" ht="21.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B24" s="124"/>
@@ -12972,14 +13033,39 @@
       <c r="E24" s="124"/>
       <c r="F24" s="124"/>
       <c r="G24" s="124"/>
-      <c r="P24" s="124"/>
-      <c r="S24" s="124"/>
-      <c r="T24" s="124"/>
+      <c r="J24" s="127" t="s">
+        <v>452</v>
+      </c>
+      <c r="K24" s="129" t="s">
+        <v>507</v>
+      </c>
+      <c r="L24" s="129"/>
+      <c r="M24" s="126" t="s">
+        <v>508</v>
+      </c>
+      <c r="N24" s="127" t="s">
+        <v>479</v>
+      </c>
+      <c r="O24" s="129" t="s">
+        <v>509</v>
+      </c>
+      <c r="P24" s="129"/>
+      <c r="Q24" s="126" t="s">
+        <v>440</v>
+      </c>
+      <c r="R24" s="127" t="s">
+        <v>510</v>
+      </c>
+      <c r="S24" s="134" t="s">
+        <v>511</v>
+      </c>
       <c r="U24" s="124"/>
-      <c r="AB24" s="123" t="s">
+      <c r="V24" s="124"/>
+      <c r="W24" s="124"/>
+      <c r="AD24" s="123" t="s">
         <v>166</v>
       </c>
-      <c r="AC24" s="123"/>
+      <c r="AE24" s="123"/>
     </row>
     <row r="25" customFormat="false" ht="21.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B25" s="124"/>
@@ -12988,21 +13074,40 @@
       <c r="E25" s="124"/>
       <c r="F25" s="124"/>
       <c r="G25" s="124"/>
-      <c r="Q25" s="124"/>
-      <c r="R25" s="124"/>
-      <c r="S25" s="124"/>
+      <c r="J25" s="127" t="s">
+        <v>512</v>
+      </c>
+      <c r="K25" s="129" t="s">
+        <v>513</v>
+      </c>
+      <c r="L25" s="129"/>
+      <c r="M25" s="126" t="s">
+        <v>514</v>
+      </c>
+      <c r="N25" s="127" t="s">
+        <v>515</v>
+      </c>
+      <c r="O25" s="129" t="s">
+        <v>516</v>
+      </c>
+      <c r="P25" s="129"/>
+      <c r="Q25" s="126" t="s">
+        <v>517</v>
+      </c>
       <c r="T25" s="124"/>
       <c r="U25" s="124"/>
-      <c r="AA25" s="125" t="s">
-        <v>502</v>
-      </c>
-      <c r="AB25" s="133" t="s">
+      <c r="V25" s="124"/>
+      <c r="W25" s="124"/>
+      <c r="AC25" s="125" t="s">
+        <v>518</v>
+      </c>
+      <c r="AD25" s="133" t="s">
         <v>219</v>
       </c>
-      <c r="AC25" s="131" t="s">
-        <v>503</v>
-      </c>
-      <c r="AD25" s="134" t="s">
+      <c r="AE25" s="131" t="s">
+        <v>519</v>
+      </c>
+      <c r="AF25" s="134" t="s">
         <v>240</v>
       </c>
     </row>
@@ -13013,16 +13118,37 @@
       <c r="E26" s="124"/>
       <c r="F26" s="124"/>
       <c r="G26" s="124"/>
-      <c r="Q26" s="124"/>
-      <c r="R26" s="124"/>
-      <c r="S26" s="124"/>
+      <c r="L26" s="125" t="s">
+        <v>413</v>
+      </c>
+      <c r="M26" s="126" t="s">
+        <v>326</v>
+      </c>
+      <c r="N26" s="127" t="s">
+        <v>520</v>
+      </c>
+      <c r="O26" s="129" t="s">
+        <v>521</v>
+      </c>
+      <c r="P26" s="129"/>
+      <c r="Q26" s="126" t="s">
+        <v>521</v>
+      </c>
       <c r="T26" s="124"/>
       <c r="U26" s="124"/>
-      <c r="AA26" s="125" t="s">
-        <v>504</v>
-      </c>
-      <c r="AB26" s="133" t="s">
+      <c r="V26" s="124"/>
+      <c r="W26" s="124"/>
+      <c r="AC26" s="125" t="s">
+        <v>522</v>
+      </c>
+      <c r="AD26" s="133" t="s">
         <v>200</v>
+      </c>
+      <c r="AE26" s="131" t="s">
+        <v>419</v>
+      </c>
+      <c r="AF26" s="134" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="21.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13032,265 +13158,185 @@
       <c r="E27" s="124"/>
       <c r="F27" s="124"/>
       <c r="G27" s="124"/>
-      <c r="Q27" s="124"/>
-      <c r="R27" s="124"/>
-      <c r="S27" s="124"/>
+      <c r="J27" s="127" t="s">
+        <v>438</v>
+      </c>
+      <c r="K27" s="129" t="s">
+        <v>523</v>
+      </c>
+      <c r="L27" s="129"/>
+      <c r="M27" s="126" t="s">
+        <v>524</v>
+      </c>
+      <c r="N27" s="127" t="s">
+        <v>457</v>
+      </c>
+      <c r="O27" s="129" t="s">
+        <v>525</v>
+      </c>
+      <c r="P27" s="129"/>
+      <c r="Q27" s="126" t="s">
+        <v>437</v>
+      </c>
       <c r="T27" s="124"/>
       <c r="U27" s="124"/>
       <c r="V27" s="124"/>
       <c r="W27" s="124"/>
-      <c r="AA27" s="125" t="s">
+      <c r="X27" s="124"/>
+      <c r="Y27" s="124"/>
+      <c r="AC27" s="125" t="s">
         <v>169</v>
       </c>
-      <c r="AB27" s="133" t="s">
+      <c r="AD27" s="133" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AA28" s="125" t="s">
+      <c r="J28" s="127" t="s">
+        <v>465</v>
+      </c>
+      <c r="K28" s="129" t="s">
+        <v>526</v>
+      </c>
+      <c r="L28" s="129"/>
+      <c r="M28" s="126" t="s">
+        <v>527</v>
+      </c>
+      <c r="N28" s="127" t="s">
+        <v>467</v>
+      </c>
+      <c r="O28" s="129" t="s">
+        <v>528</v>
+      </c>
+      <c r="P28" s="129"/>
+      <c r="Q28" s="126" t="s">
+        <v>529</v>
+      </c>
+      <c r="AC28" s="125" t="s">
+        <v>439</v>
+      </c>
+      <c r="AD28" s="133" t="s">
         <v>437</v>
       </c>
-      <c r="AB28" s="133" t="s">
-        <v>435</v>
-      </c>
     </row>
     <row r="29" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J29" s="127" t="s">
-        <v>505</v>
-      </c>
-      <c r="K29" s="129" t="s">
+      <c r="L29" s="125" t="s">
+        <v>411</v>
+      </c>
+      <c r="M29" s="126" t="s">
+        <v>412</v>
+      </c>
+      <c r="P29" s="125" t="s">
+        <v>530</v>
+      </c>
+      <c r="Q29" s="126" t="s">
+        <v>531</v>
+      </c>
+      <c r="AC29" s="125" t="s">
+        <v>461</v>
+      </c>
+      <c r="AD29" s="133" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P30" s="125" t="s">
+        <v>490</v>
+      </c>
+      <c r="Q30" s="126" t="s">
+        <v>472</v>
+      </c>
+      <c r="AC30" s="125" t="s">
+        <v>412</v>
+      </c>
+      <c r="AD30" s="133" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P31" s="125" t="s">
+        <v>499</v>
+      </c>
+      <c r="Q31" s="126" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P32" s="125" t="s">
         <v>506</v>
       </c>
-      <c r="L29" s="126" t="s">
-        <v>507</v>
-      </c>
-      <c r="M29" s="127" t="s">
-        <v>448</v>
-      </c>
-      <c r="AA29" s="125" t="s">
-        <v>458</v>
-      </c>
-      <c r="AB29" s="133" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J30" s="127" t="s">
-        <v>448</v>
-      </c>
-      <c r="K30" s="129" t="s">
-        <v>508</v>
-      </c>
-      <c r="L30" s="126" t="s">
-        <v>509</v>
-      </c>
-      <c r="M30" s="127" t="s">
-        <v>476</v>
-      </c>
-      <c r="N30" s="129" t="s">
-        <v>510</v>
-      </c>
-      <c r="O30" s="126" t="s">
-        <v>438</v>
-      </c>
-      <c r="P30" s="127" t="s">
-        <v>448</v>
-      </c>
-      <c r="AA30" s="125" t="s">
-        <v>418</v>
-      </c>
-      <c r="AB30" s="133" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J31" s="127" t="s">
-        <v>511</v>
-      </c>
-      <c r="K31" s="129" t="s">
-        <v>512</v>
-      </c>
-      <c r="L31" s="126" t="s">
-        <v>513</v>
-      </c>
-      <c r="M31" s="127" t="s">
-        <v>514</v>
-      </c>
-      <c r="N31" s="129" t="s">
-        <v>515</v>
-      </c>
-      <c r="O31" s="126" t="s">
-        <v>516</v>
-      </c>
-      <c r="AA31" s="125" t="s">
-        <v>411</v>
-      </c>
-      <c r="AB31" s="133" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K32" s="125" t="s">
-        <v>412</v>
-      </c>
-      <c r="L32" s="126" t="s">
-        <v>326</v>
-      </c>
-      <c r="M32" s="127" t="s">
-        <v>517</v>
-      </c>
-      <c r="N32" s="129" t="s">
-        <v>518</v>
-      </c>
-      <c r="O32" s="126" t="s">
-        <v>518</v>
+      <c r="Q32" s="126" t="s">
+        <v>493</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J33" s="127" t="s">
-        <v>436</v>
-      </c>
-      <c r="K33" s="129" t="s">
-        <v>519</v>
-      </c>
-      <c r="L33" s="126" t="s">
-        <v>520</v>
-      </c>
-      <c r="M33" s="127" t="s">
-        <v>453</v>
-      </c>
-      <c r="N33" s="129" t="s">
-        <v>521</v>
-      </c>
-      <c r="O33" s="126" t="s">
-        <v>435</v>
-      </c>
-      <c r="P33" s="127" t="s">
-        <v>436</v>
+      <c r="P33" s="125" t="s">
+        <v>474</v>
+      </c>
+      <c r="Q33" s="126" t="s">
+        <v>473</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J34" s="127" t="s">
-        <v>522</v>
-      </c>
-      <c r="K34" s="129" t="s">
-        <v>523</v>
-      </c>
-      <c r="L34" s="126" t="s">
-        <v>524</v>
-      </c>
-      <c r="M34" s="127" t="s">
-        <v>463</v>
-      </c>
-      <c r="N34" s="129" t="s">
-        <v>525</v>
-      </c>
-      <c r="O34" s="126" t="s">
-        <v>526</v>
-      </c>
-      <c r="P34" s="127" t="s">
-        <v>522</v>
+      <c r="P34" s="125" t="s">
+        <v>486</v>
+      </c>
+      <c r="Q34" s="126" t="s">
+        <v>485</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K35" s="125" t="s">
-        <v>410</v>
-      </c>
-      <c r="L35" s="126" t="s">
-        <v>411</v>
-      </c>
-      <c r="N35" s="125" t="s">
-        <v>527</v>
-      </c>
-      <c r="O35" s="126" t="s">
-        <v>528</v>
-      </c>
-      <c r="P35" s="127" t="s">
-        <v>529</v>
-      </c>
-      <c r="Q35" s="134" t="s">
+      <c r="P35" s="125" t="s">
+        <v>495</v>
+      </c>
+      <c r="Q35" s="126" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AD36" s="123" t="s">
+        <v>532</v>
+      </c>
+      <c r="AE36" s="123"/>
+    </row>
+    <row r="37" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AC37" s="125" t="s">
+        <v>169</v>
+      </c>
+      <c r="AD37" s="133" t="s">
+        <v>169</v>
+      </c>
+      <c r="AE37" s="131" t="s">
+        <v>533</v>
+      </c>
+      <c r="AF37" s="134" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="N36" s="125" t="s">
-        <v>488</v>
-      </c>
-      <c r="O36" s="126" t="s">
-        <v>469</v>
-      </c>
-      <c r="P36" s="127" t="s">
-        <v>467</v>
-      </c>
-      <c r="Q36" s="134" t="s">
-        <v>486</v>
-      </c>
-      <c r="AB36" s="123" t="s">
-        <v>531</v>
-      </c>
-      <c r="AC36" s="123"/>
-    </row>
-    <row r="37" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="N37" s="125" t="s">
-        <v>497</v>
-      </c>
-      <c r="O37" s="126" t="s">
-        <v>482</v>
-      </c>
-      <c r="P37" s="127" t="s">
-        <v>480</v>
-      </c>
-      <c r="Q37" s="134" t="s">
-        <v>495</v>
-      </c>
-      <c r="AA37" s="125" t="s">
-        <v>169</v>
-      </c>
-      <c r="AB37" s="133" t="s">
-        <v>169</v>
-      </c>
-      <c r="AC37" s="131" t="s">
-        <v>532</v>
-      </c>
-      <c r="AD37" s="134" t="s">
-        <v>527</v>
-      </c>
-    </row>
     <row r="38" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H38" s="135"/>
+      <c r="H38" s="137"/>
       <c r="I38" s="123" t="s">
         <v>159</v>
       </c>
       <c r="J38" s="123"/>
       <c r="K38" s="124"/>
-      <c r="N38" s="125" t="s">
-        <v>501</v>
-      </c>
-      <c r="O38" s="126" t="s">
-        <v>491</v>
-      </c>
-      <c r="P38" s="127" t="s">
-        <v>489</v>
-      </c>
-      <c r="Q38" s="134" t="s">
-        <v>499</v>
-      </c>
-      <c r="AA38" s="125" t="s">
+      <c r="L38" s="124"/>
+      <c r="AC38" s="125" t="s">
         <v>182</v>
       </c>
-      <c r="AB38" s="133" t="s">
-        <v>533</v>
-      </c>
-      <c r="AC38" s="131" t="s">
+      <c r="AD38" s="133" t="s">
         <v>534</v>
       </c>
-      <c r="AD38" s="134" t="s">
-        <v>534</v>
+      <c r="AE38" s="131" t="s">
+        <v>535</v>
+      </c>
+      <c r="AF38" s="134" t="s">
+        <v>535</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H39" s="125" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="I39" s="126" t="s">
         <v>176</v>
@@ -13299,30 +13345,25 @@
         <v>315</v>
       </c>
       <c r="K39" s="134" t="s">
-        <v>536</v>
-      </c>
-      <c r="N39" s="125" t="s">
-        <v>471</v>
-      </c>
-      <c r="O39" s="126" t="s">
-        <v>470</v>
-      </c>
-      <c r="AA39" s="125" t="s">
-        <v>530</v>
-      </c>
-      <c r="AB39" s="133" t="s">
         <v>537</v>
       </c>
-      <c r="AC39" s="131" t="s">
+      <c r="L39" s="134"/>
+      <c r="AC39" s="125" t="s">
+        <v>511</v>
+      </c>
+      <c r="AD39" s="133" t="s">
         <v>538</v>
       </c>
-      <c r="AD39" s="134" t="s">
+      <c r="AE39" s="131" t="s">
         <v>539</v>
+      </c>
+      <c r="AF39" s="134" t="s">
+        <v>540</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H40" s="125" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="I40" s="126" t="s">
         <v>189</v>
@@ -13331,136 +13372,125 @@
         <v>328</v>
       </c>
       <c r="K40" s="134" t="s">
-        <v>541</v>
-      </c>
-      <c r="N40" s="125" t="s">
-        <v>484</v>
-      </c>
-      <c r="O40" s="126" t="s">
-        <v>483</v>
-      </c>
-      <c r="AA40" s="125" t="s">
         <v>542</v>
       </c>
-      <c r="AB40" s="133" t="s">
-        <v>542</v>
-      </c>
-      <c r="AC40" s="131" t="s">
+      <c r="L40" s="134"/>
+      <c r="AC40" s="125" t="s">
         <v>543</v>
       </c>
-      <c r="AD40" s="134" t="s">
+      <c r="AD40" s="133" t="s">
+        <v>543</v>
+      </c>
+      <c r="AE40" s="131" t="s">
         <v>544</v>
+      </c>
+      <c r="AF40" s="134" t="s">
+        <v>545</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H41" s="125" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="I41" s="126" t="s">
         <v>206</v>
       </c>
       <c r="J41" s="124"/>
-      <c r="N41" s="125" t="s">
-        <v>493</v>
-      </c>
-      <c r="O41" s="126" t="s">
-        <v>492</v>
-      </c>
-      <c r="AA41" s="125" t="s">
-        <v>471</v>
-      </c>
-      <c r="AB41" s="133" t="s">
-        <v>546</v>
-      </c>
-      <c r="AC41" s="131" t="s">
+      <c r="AC41" s="125" t="s">
+        <v>474</v>
+      </c>
+      <c r="AD41" s="133" t="s">
         <v>547</v>
       </c>
-      <c r="AD41" s="134" t="s">
-        <v>455</v>
+      <c r="AE41" s="131" t="s">
+        <v>548</v>
+      </c>
+      <c r="AF41" s="134" t="s">
+        <v>458</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H42" s="125" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="I42" s="126" t="s">
         <v>227</v>
       </c>
       <c r="J42" s="124"/>
-      <c r="AA42" s="125" t="s">
-        <v>484</v>
-      </c>
-      <c r="AB42" s="133" t="s">
-        <v>549</v>
-      </c>
-      <c r="AC42" s="131" t="s">
+      <c r="AC42" s="125" t="s">
+        <v>486</v>
+      </c>
+      <c r="AD42" s="133" t="s">
         <v>550</v>
       </c>
-      <c r="AD42" s="134" t="s">
-        <v>465</v>
+      <c r="AE42" s="131" t="s">
+        <v>551</v>
+      </c>
+      <c r="AF42" s="134" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H43" s="125" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="I43" s="126" t="s">
         <v>221</v>
       </c>
       <c r="J43" s="124"/>
-      <c r="AA43" s="125" t="s">
-        <v>493</v>
-      </c>
-      <c r="AB43" s="133" t="s">
+      <c r="AC43" s="125" t="s">
+        <v>495</v>
+      </c>
+      <c r="AD43" s="133" t="s">
         <v>197</v>
       </c>
-      <c r="AC43" s="131" t="s">
-        <v>552</v>
-      </c>
-      <c r="AD43" s="134" t="s">
-        <v>478</v>
+      <c r="AE43" s="131" t="s">
+        <v>553</v>
+      </c>
+      <c r="AF43" s="134" t="s">
+        <v>480</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H44" s="125" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="I44" s="126" t="s">
         <v>257</v>
       </c>
       <c r="J44" s="124"/>
-      <c r="AA44" s="125" t="s">
+      <c r="AC44" s="125" t="s">
+        <v>439</v>
+      </c>
+      <c r="AD44" s="133" t="s">
         <v>437</v>
       </c>
-      <c r="AB44" s="133" t="s">
-        <v>435</v>
-      </c>
-      <c r="AC44" s="131" t="s">
-        <v>554</v>
-      </c>
-      <c r="AD44" s="134" t="s">
+      <c r="AE44" s="131" t="s">
         <v>555</v>
+      </c>
+      <c r="AF44" s="134" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H45" s="125" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="I45" s="126" t="s">
         <v>267</v>
       </c>
       <c r="J45" s="124"/>
-      <c r="AA45" s="125" t="s">
-        <v>445</v>
-      </c>
-      <c r="AB45" s="133" t="s">
-        <v>526</v>
-      </c>
-      <c r="AC45" s="131" t="s">
-        <v>557</v>
-      </c>
-      <c r="AD45" s="134" t="s">
+      <c r="AC45" s="125" t="s">
+        <v>448</v>
+      </c>
+      <c r="AD45" s="133" t="s">
+        <v>529</v>
+      </c>
+      <c r="AE45" s="131" t="s">
         <v>558</v>
+      </c>
+      <c r="AF45" s="134" t="s">
+        <v>559</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13471,11 +13501,11 @@
         <v>169</v>
       </c>
       <c r="J46" s="124"/>
-      <c r="AA46" s="125" t="s">
-        <v>449</v>
-      </c>
-      <c r="AB46" s="133" t="s">
-        <v>438</v>
+      <c r="AC46" s="125" t="s">
+        <v>453</v>
+      </c>
+      <c r="AD46" s="133" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13488,23 +13518,48 @@
       <c r="J47" s="124"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="42">
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="I4:J4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="R4:S4"/>
-    <mergeCell ref="V4:W4"/>
-    <mergeCell ref="Y4:Z4"/>
-    <mergeCell ref="AB4:AC4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="T4:U4"/>
+    <mergeCell ref="X4:Y4"/>
+    <mergeCell ref="AA4:AB4"/>
+    <mergeCell ref="AD4:AE4"/>
     <mergeCell ref="G5:H5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="O5:P5"/>
     <mergeCell ref="G6:H6"/>
-    <mergeCell ref="T21:U21"/>
-    <mergeCell ref="T22:U22"/>
-    <mergeCell ref="T23:U23"/>
-    <mergeCell ref="AB24:AC24"/>
-    <mergeCell ref="AB36:AC36"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="V15:W15"/>
+    <mergeCell ref="V16:W16"/>
+    <mergeCell ref="V17:W17"/>
+    <mergeCell ref="V21:W21"/>
+    <mergeCell ref="V22:W22"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="V23:W23"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="AD24:AE24"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="O25:P25"/>
+    <mergeCell ref="O26:P26"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="O27:P27"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="O28:P28"/>
+    <mergeCell ref="AD36:AE36"/>
     <mergeCell ref="I38:J38"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -13531,180 +13586,180 @@
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.67611336032389"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="13.2834008097166"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="48.3117408906883"/>
-    <col collapsed="false" hidden="false" max="17" min="5" style="0" width="13.2834008097166"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="13.3886639676113"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="48.7408906882591"/>
+    <col collapsed="false" hidden="false" max="17" min="5" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="18" style="0" width="8.67611336032389"/>
   </cols>
   <sheetData>
     <row r="3" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B3" s="1" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
-      <c r="E3" s="136" t="s">
-        <v>560</v>
-      </c>
-      <c r="F3" s="137" t="s">
+      <c r="E3" s="138" t="s">
         <v>561</v>
       </c>
-      <c r="G3" s="137" t="s">
+      <c r="F3" s="139" t="s">
         <v>562</v>
       </c>
-      <c r="H3" s="137" t="s">
+      <c r="G3" s="139" t="s">
         <v>563</v>
       </c>
-      <c r="I3" s="137" t="s">
+      <c r="H3" s="139" t="s">
         <v>564</v>
       </c>
-      <c r="J3" s="137" t="s">
+      <c r="I3" s="139" t="s">
         <v>565</v>
       </c>
-      <c r="K3" s="137" t="s">
+      <c r="J3" s="139" t="s">
         <v>566</v>
       </c>
-      <c r="L3" s="137" t="s">
+      <c r="K3" s="139" t="s">
         <v>567</v>
       </c>
-      <c r="M3" s="137" t="s">
+      <c r="L3" s="139" t="s">
         <v>568</v>
       </c>
-      <c r="N3" s="137" t="s">
+      <c r="M3" s="139" t="s">
         <v>569</v>
       </c>
-      <c r="O3" s="137" t="s">
+      <c r="N3" s="139" t="s">
         <v>570</v>
       </c>
-      <c r="P3" s="137" t="s">
+      <c r="O3" s="139" t="s">
         <v>571</v>
       </c>
-      <c r="Q3" s="138" t="s">
+      <c r="P3" s="139" t="s">
         <v>572</v>
       </c>
+      <c r="Q3" s="140" t="s">
+        <v>573</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B4" s="139" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="140" t="s">
+      <c r="B4" s="141" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="142" t="s">
         <v>71</v>
       </c>
-      <c r="D4" s="141" t="s">
-        <v>573</v>
-      </c>
-      <c r="E4" s="142"/>
-      <c r="F4" s="143" t="n">
-        <v>1</v>
-      </c>
-      <c r="G4" s="143" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" s="143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" s="143" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" s="143" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" s="143" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" s="143" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" s="143" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" s="143"/>
-      <c r="O4" s="143"/>
-      <c r="P4" s="143" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="144" t="n">
+      <c r="D4" s="143" t="s">
+        <v>574</v>
+      </c>
+      <c r="E4" s="144"/>
+      <c r="F4" s="145" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" s="145" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" s="145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" s="145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" s="145" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" s="145" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" s="145" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" s="145" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" s="145"/>
+      <c r="O4" s="145"/>
+      <c r="P4" s="145" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="146" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B5" s="139"/>
-      <c r="C5" s="145" t="s">
+      <c r="B5" s="141"/>
+      <c r="C5" s="147" t="s">
         <v>80</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>574</v>
-      </c>
-      <c r="E5" s="146"/>
-      <c r="F5" s="147" t="n">
-        <v>1</v>
-      </c>
-      <c r="G5" s="147" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" s="147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" s="147" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" s="147" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" s="147" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" s="147" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" s="147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" s="147"/>
-      <c r="O5" s="147"/>
-      <c r="P5" s="147" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="148" t="n">
+        <v>575</v>
+      </c>
+      <c r="E5" s="148"/>
+      <c r="F5" s="149" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" s="149" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" s="149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" s="149" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" s="149" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" s="149" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" s="149" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" s="149"/>
+      <c r="O5" s="149"/>
+      <c r="P5" s="149" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="150" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B6" s="139"/>
-      <c r="C6" s="149" t="s">
-        <v>575</v>
+      <c r="B6" s="141"/>
+      <c r="C6" s="151" t="s">
+        <v>576</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>576</v>
-      </c>
-      <c r="E6" s="150"/>
-      <c r="F6" s="151" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" s="151"/>
-      <c r="H6" s="151"/>
-      <c r="I6" s="151" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" s="151" t="n">
-        <v>1</v>
-      </c>
-      <c r="K6" s="151" t="n">
-        <v>1</v>
-      </c>
-      <c r="L6" s="151" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" s="151" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" s="151" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" s="151" t="n">
-        <v>1</v>
-      </c>
-      <c r="P6" s="151" t="n">
+        <v>577</v>
+      </c>
+      <c r="E6" s="152"/>
+      <c r="F6" s="153" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" s="153"/>
+      <c r="H6" s="153"/>
+      <c r="I6" s="153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" s="153" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" s="153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" s="153" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" s="153" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" s="153" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" s="153" t="n">
+        <v>1</v>
+      </c>
+      <c r="P6" s="153" t="n">
         <v>0</v>
       </c>
       <c r="Q6" s="91" t="n">
@@ -13712,37 +13767,37 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B7" s="139"/>
-      <c r="C7" s="149" t="s">
-        <v>577</v>
+      <c r="B7" s="141"/>
+      <c r="C7" s="151" t="s">
+        <v>578</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>578</v>
-      </c>
-      <c r="E7" s="150" t="n">
-        <v>1</v>
-      </c>
-      <c r="F7" s="151"/>
-      <c r="G7" s="151"/>
-      <c r="H7" s="151"/>
-      <c r="I7" s="151"/>
-      <c r="J7" s="151"/>
-      <c r="K7" s="151" t="n">
-        <v>1</v>
-      </c>
-      <c r="L7" s="151" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" s="151" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" s="151" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" s="151" t="n">
-        <v>1</v>
-      </c>
-      <c r="P7" s="151" t="n">
+        <v>579</v>
+      </c>
+      <c r="E7" s="152" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" s="153"/>
+      <c r="G7" s="153"/>
+      <c r="H7" s="153"/>
+      <c r="I7" s="153"/>
+      <c r="J7" s="153"/>
+      <c r="K7" s="153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" s="153" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" s="153" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" s="153" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" s="153" t="n">
+        <v>1</v>
+      </c>
+      <c r="P7" s="153" t="n">
         <v>0</v>
       </c>
       <c r="Q7" s="91" t="n">
@@ -13750,79 +13805,79 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B8" s="139"/>
-      <c r="C8" s="145" t="s">
+      <c r="B8" s="141"/>
+      <c r="C8" s="147" t="s">
         <v>16</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>579</v>
-      </c>
-      <c r="E8" s="146"/>
-      <c r="F8" s="147" t="n">
-        <v>1</v>
-      </c>
-      <c r="G8" s="147"/>
-      <c r="H8" s="147"/>
-      <c r="I8" s="147" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" s="147" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" s="147" t="n">
-        <v>1</v>
-      </c>
-      <c r="L8" s="147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" s="147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" s="147" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" s="147" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" s="147" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="148" t="n">
+        <v>580</v>
+      </c>
+      <c r="E8" s="148"/>
+      <c r="F8" s="149" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" s="149"/>
+      <c r="H8" s="149"/>
+      <c r="I8" s="149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" s="149" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" s="149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" s="149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" s="149" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" s="149" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" s="149" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" s="149" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="150" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B9" s="139"/>
-      <c r="C9" s="149" t="s">
+      <c r="B9" s="141"/>
+      <c r="C9" s="151" t="s">
         <v>44</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>580</v>
-      </c>
-      <c r="E9" s="150"/>
-      <c r="F9" s="151" t="n">
-        <v>1</v>
-      </c>
-      <c r="G9" s="151"/>
-      <c r="H9" s="151"/>
-      <c r="I9" s="151"/>
-      <c r="J9" s="151"/>
-      <c r="K9" s="151" t="n">
-        <v>1</v>
-      </c>
-      <c r="L9" s="151" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" s="151" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" s="151" t="n">
-        <v>1</v>
-      </c>
-      <c r="O9" s="151" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" s="151" t="n">
+        <v>581</v>
+      </c>
+      <c r="E9" s="152"/>
+      <c r="F9" s="153" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" s="153"/>
+      <c r="H9" s="153"/>
+      <c r="I9" s="153"/>
+      <c r="J9" s="153"/>
+      <c r="K9" s="153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" s="153" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" s="153" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" s="153" t="n">
+        <v>1</v>
+      </c>
+      <c r="O9" s="153" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" s="153" t="n">
         <v>0</v>
       </c>
       <c r="Q9" s="91" t="n">
@@ -13830,31 +13885,31 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B10" s="139"/>
-      <c r="C10" s="149" t="s">
-        <v>581</v>
+      <c r="B10" s="141"/>
+      <c r="C10" s="151" t="s">
+        <v>582</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>582</v>
-      </c>
-      <c r="E10" s="150"/>
-      <c r="F10" s="151"/>
-      <c r="G10" s="151"/>
-      <c r="H10" s="151"/>
-      <c r="I10" s="151"/>
-      <c r="J10" s="151"/>
-      <c r="K10" s="151" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" s="151" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" s="151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" s="151"/>
-      <c r="O10" s="151"/>
-      <c r="P10" s="151" t="n">
+        <v>583</v>
+      </c>
+      <c r="E10" s="152"/>
+      <c r="F10" s="153"/>
+      <c r="G10" s="153"/>
+      <c r="H10" s="153"/>
+      <c r="I10" s="153"/>
+      <c r="J10" s="153"/>
+      <c r="K10" s="153" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" s="153" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" s="153" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" s="153"/>
+      <c r="O10" s="153"/>
+      <c r="P10" s="153" t="n">
         <v>0</v>
       </c>
       <c r="Q10" s="91" t="n">
@@ -13862,57 +13917,57 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B11" s="139"/>
-      <c r="C11" s="145" t="s">
-        <v>583</v>
+      <c r="B11" s="141"/>
+      <c r="C11" s="147" t="s">
+        <v>584</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>584</v>
-      </c>
-      <c r="E11" s="146"/>
-      <c r="F11" s="147" t="n">
-        <v>1</v>
-      </c>
-      <c r="G11" s="147"/>
-      <c r="H11" s="147"/>
-      <c r="I11" s="147" t="n">
-        <v>1</v>
-      </c>
-      <c r="J11" s="147" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" s="147"/>
-      <c r="L11" s="147"/>
-      <c r="M11" s="147"/>
-      <c r="N11" s="147"/>
-      <c r="O11" s="147"/>
-      <c r="P11" s="147" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="148" t="n">
+        <v>585</v>
+      </c>
+      <c r="E11" s="148"/>
+      <c r="F11" s="149" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" s="149"/>
+      <c r="H11" s="149"/>
+      <c r="I11" s="149" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" s="149" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" s="149"/>
+      <c r="L11" s="149"/>
+      <c r="M11" s="149"/>
+      <c r="N11" s="149"/>
+      <c r="O11" s="149"/>
+      <c r="P11" s="149" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="150" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B12" s="139"/>
-      <c r="C12" s="149" t="s">
-        <v>585</v>
+      <c r="B12" s="141"/>
+      <c r="C12" s="151" t="s">
+        <v>586</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>586</v>
-      </c>
-      <c r="E12" s="150"/>
-      <c r="F12" s="151"/>
-      <c r="G12" s="151"/>
-      <c r="H12" s="151"/>
-      <c r="I12" s="151"/>
-      <c r="J12" s="151"/>
-      <c r="K12" s="151"/>
-      <c r="L12" s="151"/>
-      <c r="M12" s="151"/>
-      <c r="N12" s="151"/>
-      <c r="O12" s="151"/>
-      <c r="P12" s="151" t="n">
+        <v>587</v>
+      </c>
+      <c r="E12" s="152"/>
+      <c r="F12" s="153"/>
+      <c r="G12" s="153"/>
+      <c r="H12" s="153"/>
+      <c r="I12" s="153"/>
+      <c r="J12" s="153"/>
+      <c r="K12" s="153"/>
+      <c r="L12" s="153"/>
+      <c r="M12" s="153"/>
+      <c r="N12" s="153"/>
+      <c r="O12" s="153"/>
+      <c r="P12" s="153" t="n">
         <v>1</v>
       </c>
       <c r="Q12" s="91" t="n">
@@ -13920,23 +13975,23 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B13" s="139"/>
-      <c r="C13" s="149" t="s">
-        <v>587</v>
+      <c r="B13" s="141"/>
+      <c r="C13" s="151" t="s">
+        <v>588</v>
       </c>
       <c r="D13" s="12"/>
-      <c r="E13" s="150"/>
-      <c r="F13" s="151"/>
-      <c r="G13" s="151"/>
-      <c r="H13" s="151"/>
-      <c r="I13" s="151"/>
-      <c r="J13" s="151"/>
-      <c r="K13" s="151"/>
-      <c r="L13" s="151"/>
-      <c r="M13" s="151"/>
-      <c r="N13" s="151"/>
-      <c r="O13" s="151"/>
-      <c r="P13" s="151" t="n">
+      <c r="E13" s="152"/>
+      <c r="F13" s="153"/>
+      <c r="G13" s="153"/>
+      <c r="H13" s="153"/>
+      <c r="I13" s="153"/>
+      <c r="J13" s="153"/>
+      <c r="K13" s="153"/>
+      <c r="L13" s="153"/>
+      <c r="M13" s="153"/>
+      <c r="N13" s="153"/>
+      <c r="O13" s="153"/>
+      <c r="P13" s="153" t="n">
         <v>1</v>
       </c>
       <c r="Q13" s="91" t="n">
@@ -13944,184 +13999,184 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B14" s="139"/>
-      <c r="C14" s="145"/>
+      <c r="B14" s="141"/>
+      <c r="C14" s="147"/>
       <c r="D14" s="22"/>
-      <c r="E14" s="146"/>
-      <c r="F14" s="147"/>
-      <c r="G14" s="147"/>
-      <c r="H14" s="147"/>
-      <c r="I14" s="147"/>
-      <c r="J14" s="147"/>
-      <c r="K14" s="147"/>
-      <c r="L14" s="147"/>
-      <c r="M14" s="147"/>
-      <c r="N14" s="147"/>
-      <c r="O14" s="147"/>
-      <c r="P14" s="147"/>
-      <c r="Q14" s="148"/>
+      <c r="E14" s="148"/>
+      <c r="F14" s="149"/>
+      <c r="G14" s="149"/>
+      <c r="H14" s="149"/>
+      <c r="I14" s="149"/>
+      <c r="J14" s="149"/>
+      <c r="K14" s="149"/>
+      <c r="L14" s="149"/>
+      <c r="M14" s="149"/>
+      <c r="N14" s="149"/>
+      <c r="O14" s="149"/>
+      <c r="P14" s="149"/>
+      <c r="Q14" s="150"/>
     </row>
     <row r="15" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B15" s="139"/>
-      <c r="C15" s="149"/>
+      <c r="B15" s="141"/>
+      <c r="C15" s="151"/>
       <c r="D15" s="12"/>
-      <c r="E15" s="150"/>
-      <c r="F15" s="151"/>
-      <c r="G15" s="151"/>
-      <c r="H15" s="151"/>
-      <c r="I15" s="151"/>
-      <c r="J15" s="151"/>
-      <c r="K15" s="151"/>
-      <c r="L15" s="151"/>
-      <c r="M15" s="151"/>
-      <c r="N15" s="151"/>
-      <c r="O15" s="151"/>
-      <c r="P15" s="151"/>
+      <c r="E15" s="152"/>
+      <c r="F15" s="153"/>
+      <c r="G15" s="153"/>
+      <c r="H15" s="153"/>
+      <c r="I15" s="153"/>
+      <c r="J15" s="153"/>
+      <c r="K15" s="153"/>
+      <c r="L15" s="153"/>
+      <c r="M15" s="153"/>
+      <c r="N15" s="153"/>
+      <c r="O15" s="153"/>
+      <c r="P15" s="153"/>
       <c r="Q15" s="91"/>
     </row>
     <row r="16" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B16" s="139"/>
-      <c r="C16" s="149"/>
+      <c r="B16" s="141"/>
+      <c r="C16" s="151"/>
       <c r="D16" s="12"/>
-      <c r="E16" s="150"/>
-      <c r="F16" s="151"/>
-      <c r="G16" s="151"/>
-      <c r="H16" s="151"/>
-      <c r="I16" s="151"/>
-      <c r="J16" s="151"/>
-      <c r="K16" s="151"/>
-      <c r="L16" s="151"/>
-      <c r="M16" s="151"/>
-      <c r="N16" s="151"/>
-      <c r="O16" s="151"/>
-      <c r="P16" s="151"/>
+      <c r="E16" s="152"/>
+      <c r="F16" s="153"/>
+      <c r="G16" s="153"/>
+      <c r="H16" s="153"/>
+      <c r="I16" s="153"/>
+      <c r="J16" s="153"/>
+      <c r="K16" s="153"/>
+      <c r="L16" s="153"/>
+      <c r="M16" s="153"/>
+      <c r="N16" s="153"/>
+      <c r="O16" s="153"/>
+      <c r="P16" s="153"/>
       <c r="Q16" s="91"/>
     </row>
     <row r="17" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B17" s="139"/>
-      <c r="C17" s="145"/>
+      <c r="B17" s="141"/>
+      <c r="C17" s="147"/>
       <c r="D17" s="22"/>
-      <c r="E17" s="146"/>
-      <c r="F17" s="147"/>
-      <c r="G17" s="147"/>
-      <c r="H17" s="147"/>
-      <c r="I17" s="147"/>
-      <c r="J17" s="147"/>
-      <c r="K17" s="147"/>
-      <c r="L17" s="147"/>
-      <c r="M17" s="147"/>
-      <c r="N17" s="147"/>
-      <c r="O17" s="147"/>
-      <c r="P17" s="147"/>
-      <c r="Q17" s="148"/>
+      <c r="E17" s="148"/>
+      <c r="F17" s="149"/>
+      <c r="G17" s="149"/>
+      <c r="H17" s="149"/>
+      <c r="I17" s="149"/>
+      <c r="J17" s="149"/>
+      <c r="K17" s="149"/>
+      <c r="L17" s="149"/>
+      <c r="M17" s="149"/>
+      <c r="N17" s="149"/>
+      <c r="O17" s="149"/>
+      <c r="P17" s="149"/>
+      <c r="Q17" s="150"/>
     </row>
     <row r="18" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B18" s="139"/>
-      <c r="C18" s="149"/>
+      <c r="B18" s="141"/>
+      <c r="C18" s="151"/>
       <c r="D18" s="12"/>
-      <c r="E18" s="150"/>
-      <c r="F18" s="151"/>
-      <c r="G18" s="151"/>
-      <c r="H18" s="151"/>
-      <c r="I18" s="151"/>
-      <c r="J18" s="151"/>
-      <c r="K18" s="151"/>
-      <c r="L18" s="151"/>
-      <c r="M18" s="151"/>
-      <c r="N18" s="151"/>
-      <c r="O18" s="151"/>
-      <c r="P18" s="151"/>
+      <c r="E18" s="152"/>
+      <c r="F18" s="153"/>
+      <c r="G18" s="153"/>
+      <c r="H18" s="153"/>
+      <c r="I18" s="153"/>
+      <c r="J18" s="153"/>
+      <c r="K18" s="153"/>
+      <c r="L18" s="153"/>
+      <c r="M18" s="153"/>
+      <c r="N18" s="153"/>
+      <c r="O18" s="153"/>
+      <c r="P18" s="153"/>
       <c r="Q18" s="91"/>
     </row>
     <row r="19" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B19" s="139"/>
-      <c r="C19" s="149"/>
+      <c r="B19" s="141"/>
+      <c r="C19" s="151"/>
       <c r="D19" s="12"/>
-      <c r="E19" s="150"/>
-      <c r="F19" s="151"/>
-      <c r="G19" s="151"/>
-      <c r="H19" s="151"/>
-      <c r="I19" s="151"/>
-      <c r="J19" s="151"/>
-      <c r="K19" s="151"/>
-      <c r="L19" s="151"/>
-      <c r="M19" s="151"/>
-      <c r="N19" s="151"/>
-      <c r="O19" s="151"/>
-      <c r="P19" s="151"/>
+      <c r="E19" s="152"/>
+      <c r="F19" s="153"/>
+      <c r="G19" s="153"/>
+      <c r="H19" s="153"/>
+      <c r="I19" s="153"/>
+      <c r="J19" s="153"/>
+      <c r="K19" s="153"/>
+      <c r="L19" s="153"/>
+      <c r="M19" s="153"/>
+      <c r="N19" s="153"/>
+      <c r="O19" s="153"/>
+      <c r="P19" s="153"/>
       <c r="Q19" s="91"/>
     </row>
     <row r="20" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B20" s="139"/>
-      <c r="C20" s="145"/>
+      <c r="B20" s="141"/>
+      <c r="C20" s="147"/>
       <c r="D20" s="22"/>
-      <c r="E20" s="146"/>
-      <c r="F20" s="147"/>
-      <c r="G20" s="147"/>
-      <c r="H20" s="147"/>
-      <c r="I20" s="147"/>
-      <c r="J20" s="147"/>
-      <c r="K20" s="147"/>
-      <c r="L20" s="147"/>
-      <c r="M20" s="147"/>
-      <c r="N20" s="147"/>
-      <c r="O20" s="147"/>
-      <c r="P20" s="147"/>
-      <c r="Q20" s="148"/>
+      <c r="E20" s="148"/>
+      <c r="F20" s="149"/>
+      <c r="G20" s="149"/>
+      <c r="H20" s="149"/>
+      <c r="I20" s="149"/>
+      <c r="J20" s="149"/>
+      <c r="K20" s="149"/>
+      <c r="L20" s="149"/>
+      <c r="M20" s="149"/>
+      <c r="N20" s="149"/>
+      <c r="O20" s="149"/>
+      <c r="P20" s="149"/>
+      <c r="Q20" s="150"/>
     </row>
     <row r="21" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B21" s="139"/>
-      <c r="C21" s="149"/>
+      <c r="B21" s="141"/>
+      <c r="C21" s="151"/>
       <c r="D21" s="12"/>
-      <c r="E21" s="150"/>
-      <c r="F21" s="151"/>
-      <c r="G21" s="151"/>
-      <c r="H21" s="151"/>
-      <c r="I21" s="151"/>
-      <c r="J21" s="151"/>
-      <c r="K21" s="151"/>
-      <c r="L21" s="151"/>
-      <c r="M21" s="151"/>
-      <c r="N21" s="151"/>
-      <c r="O21" s="151"/>
-      <c r="P21" s="151"/>
+      <c r="E21" s="152"/>
+      <c r="F21" s="153"/>
+      <c r="G21" s="153"/>
+      <c r="H21" s="153"/>
+      <c r="I21" s="153"/>
+      <c r="J21" s="153"/>
+      <c r="K21" s="153"/>
+      <c r="L21" s="153"/>
+      <c r="M21" s="153"/>
+      <c r="N21" s="153"/>
+      <c r="O21" s="153"/>
+      <c r="P21" s="153"/>
       <c r="Q21" s="91"/>
     </row>
     <row r="22" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B22" s="139"/>
-      <c r="C22" s="149"/>
+      <c r="B22" s="141"/>
+      <c r="C22" s="151"/>
       <c r="D22" s="12"/>
-      <c r="E22" s="150"/>
-      <c r="F22" s="151"/>
-      <c r="G22" s="151"/>
-      <c r="H22" s="151"/>
-      <c r="I22" s="151"/>
-      <c r="J22" s="151"/>
-      <c r="K22" s="151"/>
-      <c r="L22" s="151"/>
-      <c r="M22" s="151"/>
-      <c r="N22" s="151"/>
-      <c r="O22" s="151"/>
-      <c r="P22" s="151"/>
+      <c r="E22" s="152"/>
+      <c r="F22" s="153"/>
+      <c r="G22" s="153"/>
+      <c r="H22" s="153"/>
+      <c r="I22" s="153"/>
+      <c r="J22" s="153"/>
+      <c r="K22" s="153"/>
+      <c r="L22" s="153"/>
+      <c r="M22" s="153"/>
+      <c r="N22" s="153"/>
+      <c r="O22" s="153"/>
+      <c r="P22" s="153"/>
       <c r="Q22" s="91"/>
     </row>
     <row r="23" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B23" s="139"/>
-      <c r="C23" s="152"/>
-      <c r="D23" s="153"/>
-      <c r="E23" s="154"/>
-      <c r="F23" s="155"/>
-      <c r="G23" s="155"/>
-      <c r="H23" s="155"/>
-      <c r="I23" s="155"/>
-      <c r="J23" s="155"/>
-      <c r="K23" s="155"/>
-      <c r="L23" s="155"/>
-      <c r="M23" s="155"/>
-      <c r="N23" s="155"/>
-      <c r="O23" s="155"/>
-      <c r="P23" s="155"/>
-      <c r="Q23" s="156"/>
+      <c r="B23" s="141"/>
+      <c r="C23" s="154"/>
+      <c r="D23" s="155"/>
+      <c r="E23" s="156"/>
+      <c r="F23" s="157"/>
+      <c r="G23" s="157"/>
+      <c r="H23" s="157"/>
+      <c r="I23" s="157"/>
+      <c r="J23" s="157"/>
+      <c r="K23" s="157"/>
+      <c r="L23" s="157"/>
+      <c r="M23" s="157"/>
+      <c r="N23" s="157"/>
+      <c r="O23" s="157"/>
+      <c r="P23" s="157"/>
+      <c r="Q23" s="158"/>
     </row>
   </sheetData>
   <mergeCells count="2">
